--- a/outputs-r202/f__Treponemataceae.xlsx
+++ b/outputs-r202/f__Treponemataceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -561,6 +566,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -612,6 +622,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>g__Treponema_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -663,6 +678,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>g__Treponema_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -714,6 +734,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>g__Treponema_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -765,6 +790,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -816,6 +846,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -867,6 +902,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>g__Spiro-10</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -918,6 +958,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -969,6 +1014,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1020,6 +1070,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1071,6 +1126,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1122,6 +1182,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1173,6 +1238,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1224,6 +1294,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1275,6 +1350,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>g__Treponema_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1326,6 +1406,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1377,6 +1462,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>g__Spiro-10</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1428,6 +1518,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1479,6 +1574,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>g__Treponema_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1530,6 +1630,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1581,6 +1686,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1632,6 +1742,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1683,6 +1798,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1734,6 +1854,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1785,6 +1910,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1836,6 +1966,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1887,6 +2022,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>g__Treponema_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1938,6 +2078,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1989,6 +2134,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2040,6 +2190,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2091,6 +2246,11 @@
           <t>g__Treponema_C</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>g__Treponema_C(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2142,6 +2302,11 @@
           <t>g__Spiro-10</t>
         </is>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>g__Spiro-10(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2193,6 +2358,11 @@
           <t>g__Treponema_D</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2240,6 +2410,11 @@
         <v>0.8025968832155858</v>
       </c>
       <c r="O35" t="inlineStr">
+        <is>
+          <t>g__Treponema_D</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>g__Treponema_D</t>
         </is>
